--- a/proyecto/TablasTiposDeDatos.xlsx
+++ b/proyecto/TablasTiposDeDatos.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\DataAnalytics\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE01772-F0E5-412D-A9D6-E95E6938ABDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F8908-A00C-42A7-9053-9A4878DB8A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="296" xr2:uid="{37C178CE-31BD-4C0E-9B87-3CA66410A2A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="TABLAS" sheetId="1" r:id="rId1"/>
+    <sheet name="TABLASyTIPOS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,139 +41,139 @@
     <t>Empleado</t>
   </si>
   <si>
-    <t>Género</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
     <t>Trabajo_de</t>
   </si>
   <si>
-    <t>Nombre_trabajo</t>
-  </si>
-  <si>
     <t>Modalidad</t>
   </si>
   <si>
-    <t>Nombre_modalidad</t>
-  </si>
-  <si>
-    <t>Lugar_de_trabajo</t>
-  </si>
-  <si>
-    <t>Dedicación</t>
-  </si>
-  <si>
     <t>Tipo_de_Contrato</t>
   </si>
   <si>
-    <t>Nombre_contrato</t>
-  </si>
-  <si>
     <t>Sueldos</t>
   </si>
   <si>
-    <t>Dolarización</t>
-  </si>
-  <si>
-    <t>Nivel_seniority</t>
-  </si>
-  <si>
-    <t>Último_salario_neto_en_pesos</t>
-  </si>
-  <si>
-    <t>Cantidad_actualizaciones_salariales_2022</t>
-  </si>
-  <si>
-    <t>Fecha_último_ajuste</t>
-  </si>
-  <si>
-    <t>Ajuste_total_acumulado_en_2022</t>
-  </si>
-  <si>
     <t>Experiencias</t>
   </si>
   <si>
-    <t>ID_empleado(FK)</t>
-  </si>
-  <si>
-    <t>Años_en_puesto_actual</t>
-  </si>
-  <si>
-    <t>Años_de_experiencia</t>
-  </si>
-  <si>
     <t>Tareas_y_usos</t>
   </si>
   <si>
-    <t>ID_contrato(PK)</t>
-  </si>
-  <si>
-    <t>ID_contrato(FK)</t>
-  </si>
-  <si>
-    <t>ID_modalidad(PK)</t>
-  </si>
-  <si>
-    <t>ID_trabajo(PK)</t>
-  </si>
-  <si>
-    <t>ID_trabajo(FK)</t>
-  </si>
-  <si>
-    <t>ID_empleado(PK)</t>
-  </si>
-  <si>
-    <t>ID_modalidad(FK)</t>
-  </si>
-  <si>
-    <t>Plataformas utilizadas</t>
-  </si>
-  <si>
-    <t>Programación_o_tecnologías</t>
-  </si>
-  <si>
-    <t>Bases_de_datos</t>
-  </si>
-  <si>
-    <t>QA_testing</t>
-  </si>
-  <si>
     <t>Estudios</t>
   </si>
   <si>
-    <t>Nivel_de_estudios</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Carrera</t>
-  </si>
-  <si>
-    <t>Universidad</t>
-  </si>
-  <si>
     <t>Encuestas</t>
   </si>
   <si>
-    <t>Estas_buscando_trabajo</t>
-  </si>
-  <si>
-    <t>Conformidad_salarial_vs_semestre_anterior</t>
-  </si>
-  <si>
-    <t>Conformidad_salarial_actual</t>
-  </si>
-  <si>
-    <t>Cantidad_de_personas_en_empresa</t>
-  </si>
-  <si>
-    <t>Recomendas_la_empresa</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ID_empleado: PK, int, not null, identity</t>
+  </si>
+  <si>
+    <t>Lugar_de_trabajo: varchar(100), null</t>
+  </si>
+  <si>
+    <t>Género: varchar(25), null</t>
+  </si>
+  <si>
+    <t>Edad: int, null</t>
+  </si>
+  <si>
+    <t>Dedicación: varchar(25), null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivel_seniority: varchar(25), null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_modalidad: FK, int, null </t>
+  </si>
+  <si>
+    <t>ID_contrato: FK, int, null</t>
+  </si>
+  <si>
+    <t>ID_trabajo: FK, int, null</t>
+  </si>
+  <si>
+    <t>ID_trabajo: PK, int, not null, identity</t>
+  </si>
+  <si>
+    <t>Nombre_trabajo: varchar(250), null</t>
+  </si>
+  <si>
+    <t>ID_modalidad: PK, int, not null, identity</t>
+  </si>
+  <si>
+    <t>ID_contrato: PK, int, not null, identity</t>
+  </si>
+  <si>
+    <t>Nombre_modalidad: nvarchar(100), null</t>
+  </si>
+  <si>
+    <t>Nombre_contrato: varchar(100), null</t>
+  </si>
+  <si>
+    <t>ID_empleado: FK, int, null</t>
+  </si>
+  <si>
+    <t>Dolarización: varchar(250), null</t>
+  </si>
+  <si>
+    <t>Plataformas utilizadas: varchar(250), null</t>
+  </si>
+  <si>
+    <t>Programación_o_tecnologías: varchar(250), null</t>
+  </si>
+  <si>
+    <t>Bases_de_datos: varchar(250), null</t>
+  </si>
+  <si>
+    <t>QA_testing: varchar(250), null</t>
+  </si>
+  <si>
+    <t>Carrera: varchar(250), null</t>
+  </si>
+  <si>
+    <t>Universidad: varchar(250), null</t>
+  </si>
+  <si>
+    <t>Fecha_último_ajuste: date, null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Último_salario_neto_en_pesos: float, null </t>
+  </si>
+  <si>
+    <t>Cantidad_actualizaciones_salariales_2022: int, null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajuste_total_acumulado_en_2022: float, null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Años_de_experiencia: int, null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Años_en_puesto_actual: int, null </t>
+  </si>
+  <si>
+    <t>Nivel_de_estudios: varchar(50), null</t>
+  </si>
+  <si>
+    <t>Estado: varchar(25), null</t>
+  </si>
+  <si>
+    <t>Estas_buscando_trabajo: varchar(50), null</t>
+  </si>
+  <si>
+    <t>Conformidad_salarial_vs_semestre_anterior: int, null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conformidad_salarial_actual: int, null </t>
+  </si>
+  <si>
+    <t>Cantidad_de_personas_en_empresa: nvarchar(100), null</t>
+  </si>
+  <si>
+    <t>Recomendas_la_empresa: int. Null</t>
   </si>
 </sst>
 </file>
@@ -542,20 +542,20 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -563,169 +563,169 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/proyecto/TablasTiposDeDatos.xlsx
+++ b/proyecto/TablasTiposDeDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\DataAnalytics\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F8908-A00C-42A7-9053-9A4878DB8A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B03C88-8394-4018-B04B-E54D93394835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="296" xr2:uid="{37C178CE-31BD-4C0E-9B87-3CA66410A2A8}"/>
   </bookViews>
@@ -41,15 +41,9 @@
     <t>Empleado</t>
   </si>
   <si>
-    <t>Trabajo_de</t>
-  </si>
-  <si>
     <t>Modalidad</t>
   </si>
   <si>
-    <t>Tipo_de_Contrato</t>
-  </si>
-  <si>
     <t>Sueldos</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>ID_empleado: PK, int, not null, identity</t>
   </si>
   <si>
-    <t>Lugar_de_trabajo: varchar(100), null</t>
-  </si>
-  <si>
     <t>Género: varchar(25), null</t>
   </si>
   <si>
@@ -83,9 +74,6 @@
     <t>Dedicación: varchar(25), null</t>
   </si>
   <si>
-    <t xml:space="preserve">Nivel_seniority: varchar(25), null </t>
-  </si>
-  <si>
     <t xml:space="preserve">ID_modalidad: FK, int, null </t>
   </si>
   <si>
@@ -98,21 +86,12 @@
     <t>ID_trabajo: PK, int, not null, identity</t>
   </si>
   <si>
-    <t>Nombre_trabajo: varchar(250), null</t>
-  </si>
-  <si>
     <t>ID_modalidad: PK, int, not null, identity</t>
   </si>
   <si>
     <t>ID_contrato: PK, int, not null, identity</t>
   </si>
   <si>
-    <t>Nombre_modalidad: nvarchar(100), null</t>
-  </si>
-  <si>
-    <t>Nombre_contrato: varchar(100), null</t>
-  </si>
-  <si>
     <t>ID_empleado: FK, int, null</t>
   </si>
   <si>
@@ -143,9 +122,6 @@
     <t xml:space="preserve">Último_salario_neto_en_pesos: float, null </t>
   </si>
   <si>
-    <t>Cantidad_actualizaciones_salariales_2022: int, null</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ajuste_total_acumulado_en_2022: float, null </t>
   </si>
   <si>
@@ -161,9 +137,6 @@
     <t>Estado: varchar(25), null</t>
   </si>
   <si>
-    <t>Estas_buscando_trabajo: varchar(50), null</t>
-  </si>
-  <si>
     <t>Conformidad_salarial_vs_semestre_anterior: int, null</t>
   </si>
   <si>
@@ -173,7 +146,34 @@
     <t>Cantidad_de_personas_en_empresa: nvarchar(100), null</t>
   </si>
   <si>
-    <t>Recomendas_la_empresa: int. Null</t>
+    <t>Ubicación: varchar(100), null</t>
+  </si>
+  <si>
+    <t>Trabajo</t>
+  </si>
+  <si>
+    <t>Trabajo: varchar(250), null</t>
+  </si>
+  <si>
+    <t>Contrato</t>
+  </si>
+  <si>
+    <t>Contrato: varchar(100), null</t>
+  </si>
+  <si>
+    <t>Modalidad: nvarchar(100), null</t>
+  </si>
+  <si>
+    <t>Actualizaciones_salariales_2022: varchar(25), null</t>
+  </si>
+  <si>
+    <t>Buscando_trabajo: varchar(50), null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seniority: varchar(25), null </t>
+  </si>
+  <si>
+    <t>Recomendas_la_empresa: int, null</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,148 +563,148 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
         <v>45</v>
@@ -712,20 +712,20 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
